--- a/raw_files/cfu_bacteria.xlsx
+++ b/raw_files/cfu_bacteria.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raquel.correa\Desktop\R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ignacio.romero\ownCloud - Romero Ignacio@owncloud.fibl.org\exchange_iro_nbo_vgf\iro\banana_microbiome\raw_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69DE5F9-826D-4E34-A273-08ACE6D69FAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D798F217-2CBB-4498-BBCC-757CDBF302A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{3099E6A1-4DD2-4980-A120-CFFE3D1011F5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6936" xr2:uid="{3099E6A1-4DD2-4980-A120-CFFE3D1011F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="16">
   <si>
     <t>time</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>control.legumes</t>
+  </si>
+  <si>
+    <t>pot</t>
+  </si>
+  <si>
+    <t>exp.id</t>
   </si>
 </sst>
 </file>
@@ -418,15 +424,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3FE8B97-9345-43F9-B5B4-6B4AC6F60A59}">
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,8 +442,14 @@
       <c r="C1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -447,8 +459,15 @@
       <c r="C2">
         <v>2080000</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="str">
+        <f>A2&amp;"_"&amp;B2&amp;"_"&amp;"bact"&amp;"_"&amp;D2</f>
+        <v>t0_control_bact_1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -458,8 +477,15 @@
       <c r="C3">
         <v>5250000</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E66" si="0">A3&amp;"_"&amp;B3&amp;"_"&amp;"bact"&amp;"_"&amp;D3</f>
+        <v>t0_control_bact_2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -469,8 +495,15 @@
       <c r="C4">
         <v>4800000</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>t0_control_bact_3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -480,8 +513,15 @@
       <c r="C5">
         <v>5150000</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>t0_control.amf_bact_1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -491,8 +531,15 @@
       <c r="C6">
         <v>5600000</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>t0_control.amf_bact_2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -502,8 +549,15 @@
       <c r="C7">
         <v>1450000</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>t0_control.amf_bact_3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -513,8 +567,15 @@
       <c r="C8">
         <v>49000000</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>t0_chicken.manure_bact_1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -524,8 +585,15 @@
       <c r="C9">
         <v>14000000</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>t0_chicken.manure_bact_2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -535,8 +603,15 @@
       <c r="C10">
         <v>10100000</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>t0_chicken.manure_bact_3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -546,8 +621,15 @@
       <c r="C11">
         <v>5450000</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>t0_cow.manure_bact_1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -557,8 +639,15 @@
       <c r="C12">
         <v>6250000</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>t0_cow.manure_bact_2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -568,8 +657,15 @@
       <c r="C13">
         <v>4300000</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>t0_cow.manure_bact_3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -579,8 +675,15 @@
       <c r="C14">
         <v>2500000</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>t0_mo.pellet_bact_1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -590,8 +693,15 @@
       <c r="C15">
         <v>4750000</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>t0_mo.pellet_bact_2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -601,8 +711,15 @@
       <c r="C16">
         <v>2800000</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>t0_mo.pellet_bact_3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -612,8 +729,15 @@
       <c r="C17">
         <v>5050000</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>t0_compost_bact_1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -623,8 +747,15 @@
       <c r="C18">
         <v>7600000</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>t0_compost_bact_2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -634,8 +765,15 @@
       <c r="C19">
         <v>1320000</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>t0_compost_bact_3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -645,8 +783,15 @@
       <c r="C20">
         <v>5000000</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>t0_control.legumes_bact_1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -656,8 +801,15 @@
       <c r="C21">
         <v>7450000</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>t0_control.legumes_bact_2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -667,8 +819,15 @@
       <c r="C22">
         <v>1910000</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>t0_control.legumes_bact_3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -678,8 +837,15 @@
       <c r="C23" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>time_treatment_bact_1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -689,8 +855,15 @@
       <c r="C24">
         <v>570000</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>t1_control_bact_2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -700,8 +873,15 @@
       <c r="C25">
         <v>5050000</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>t1_control_bact_3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -711,8 +891,15 @@
       <c r="C26">
         <v>665000</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>t1_control_bact_1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -722,8 +909,15 @@
       <c r="C27">
         <v>380000</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>t1_control.amf_bact_2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -733,8 +927,15 @@
       <c r="C28">
         <v>8800000</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>t1_control.amf_bact_3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -744,8 +945,15 @@
       <c r="C29">
         <v>740000</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>t1_control.amf_bact_1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -755,8 +963,15 @@
       <c r="C30">
         <v>11300000</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>t1_chicken.manure_bact_2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -766,8 +981,15 @@
       <c r="C31">
         <v>12400000</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>t1_chicken.manure_bact_3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -777,8 +999,15 @@
       <c r="C32">
         <v>7350000</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>t1_chicken.manure_bact_1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -788,8 +1017,15 @@
       <c r="C33">
         <v>2745000</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>t1_cow.manure_bact_2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -799,8 +1035,15 @@
       <c r="C34">
         <v>5450000</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>t1_cow.manure_bact_3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -810,8 +1053,15 @@
       <c r="C35">
         <v>2190000</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>t1_cow.manure_bact_1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -821,8 +1071,15 @@
       <c r="C36">
         <v>720000</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>t1_mo.pellet_bact_2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -832,8 +1089,15 @@
       <c r="C37">
         <v>6250000</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>t1_mo.pellet_bact_3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -843,8 +1107,15 @@
       <c r="C38">
         <v>1070000</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>t1_mo.pellet_bact_1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -854,8 +1125,15 @@
       <c r="C39">
         <v>835000</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>t1_compost_bact_2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -865,8 +1143,15 @@
       <c r="C40">
         <v>4850000</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>t1_compost_bact_3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -876,8 +1161,15 @@
       <c r="C41">
         <v>1190000</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>t1_compost_bact_1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -887,8 +1179,15 @@
       <c r="C42">
         <v>1835000</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>t1_control.legumes_bact_2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -898,8 +1197,15 @@
       <c r="C43">
         <v>8750000</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>t1_control.legumes_bact_3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -909,8 +1215,15 @@
       <c r="C44">
         <v>1615000</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>t1_control.legumes_bact_1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -920,8 +1233,15 @@
       <c r="C45" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>time_treatment_bact_2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -931,8 +1251,15 @@
       <c r="C46">
         <v>405000</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>t2_control_bact_3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -942,8 +1269,15 @@
       <c r="C47">
         <v>1110000</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>t2_control_bact_1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -953,8 +1287,15 @@
       <c r="C48">
         <v>830000</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>t2_control_bact_2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -964,8 +1305,15 @@
       <c r="C49">
         <v>630000</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v>t2_control.amf_bact_3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -975,8 +1323,15 @@
       <c r="C50">
         <v>575000</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v>t2_control.amf_bact_1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -986,8 +1341,15 @@
       <c r="C51">
         <v>535000</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v>t2_control.amf_bact_2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -997,8 +1359,15 @@
       <c r="C52">
         <v>5800000</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v>t2_chicken.manure_bact_3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -1008,8 +1377,15 @@
       <c r="C53">
         <v>6300000</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="0"/>
+        <v>t2_chicken.manure_bact_1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -1019,8 +1395,15 @@
       <c r="C54">
         <v>2200000</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="0"/>
+        <v>t2_chicken.manure_bact_2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -1030,8 +1413,15 @@
       <c r="C55">
         <v>1030000</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="0"/>
+        <v>t2_cow.manure_bact_3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -1041,8 +1431,15 @@
       <c r="C56">
         <v>3250000</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="0"/>
+        <v>t2_cow.manure_bact_1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -1052,8 +1449,15 @@
       <c r="C57">
         <v>1080000</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="0"/>
+        <v>t2_cow.manure_bact_2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -1063,8 +1467,15 @@
       <c r="C58">
         <v>1050000</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="0"/>
+        <v>t2_mo.pellet_bact_3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -1074,8 +1485,15 @@
       <c r="C59">
         <v>4300000</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="0"/>
+        <v>t2_mo.pellet_bact_1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -1085,8 +1503,15 @@
       <c r="C60">
         <v>2750000</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="0"/>
+        <v>t2_mo.pellet_bact_2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -1096,8 +1521,15 @@
       <c r="C61">
         <v>1320000</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="0"/>
+        <v>t2_compost_bact_3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -1107,8 +1539,15 @@
       <c r="C62">
         <v>1160000</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="0"/>
+        <v>t2_compost_bact_1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -1118,8 +1557,15 @@
       <c r="C63">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="0"/>
+        <v>t2_compost_bact_2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -1129,8 +1575,15 @@
       <c r="C64">
         <v>1340000</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D64">
+        <v>3</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="0"/>
+        <v>t2_control.legumes_bact_3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -1140,8 +1593,15 @@
       <c r="C65">
         <v>2480000</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="0"/>
+        <v>t2_control.legumes_bact_1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -1151,8 +1611,15 @@
       <c r="C66">
         <v>3110000</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="0"/>
+        <v>t2_control.legumes_bact_2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -1162,8 +1629,15 @@
       <c r="C67" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" ref="E67:E88" si="1">A67&amp;"_"&amp;B67&amp;"_"&amp;"bact"&amp;"_"&amp;D67</f>
+        <v>time_treatment_bact_3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -1173,8 +1647,15 @@
       <c r="C68">
         <v>955000</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="1"/>
+        <v>t3_control_bact_1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -1184,8 +1665,15 @@
       <c r="C69">
         <v>390000</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="1"/>
+        <v>t3_control_bact_2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -1195,8 +1683,15 @@
       <c r="C70">
         <v>595000</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D70">
+        <v>3</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="1"/>
+        <v>t3_control_bact_3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -1206,8 +1701,15 @@
       <c r="C71">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="1"/>
+        <v>t3_control.amf_bact_1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -1217,8 +1719,15 @@
       <c r="C72">
         <v>555000</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="1"/>
+        <v>t3_control.amf_bact_2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -1228,8 +1737,15 @@
       <c r="C73">
         <v>990000</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="1"/>
+        <v>t3_control.amf_bact_3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -1239,8 +1755,15 @@
       <c r="C74">
         <v>12100000</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="1"/>
+        <v>t3_chicken.manure_bact_1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -1250,8 +1773,15 @@
       <c r="C75">
         <v>3150000</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="1"/>
+        <v>t3_chicken.manure_bact_2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -1261,8 +1791,15 @@
       <c r="C76">
         <v>3450000</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="1"/>
+        <v>t3_chicken.manure_bact_3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -1272,8 +1809,15 @@
       <c r="C77">
         <v>1180000</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="1"/>
+        <v>t3_cow.manure_bact_1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -1283,8 +1827,15 @@
       <c r="C78">
         <v>3250000</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="1"/>
+        <v>t3_cow.manure_bact_2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -1294,8 +1845,15 @@
       <c r="C79">
         <v>2900000</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="1"/>
+        <v>t3_cow.manure_bact_3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -1305,8 +1863,15 @@
       <c r="C80">
         <v>1070000</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="1"/>
+        <v>t3_mo.pellet_bact_1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -1316,8 +1881,15 @@
       <c r="C81">
         <v>500000</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="1"/>
+        <v>t3_mo.pellet_bact_2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -1327,8 +1899,15 @@
       <c r="C82">
         <v>460000</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D82">
+        <v>3</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="1"/>
+        <v>t3_mo.pellet_bact_3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -1338,8 +1917,15 @@
       <c r="C83">
         <v>1160000</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="1"/>
+        <v>t3_compost_bact_1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -1349,8 +1935,15 @@
       <c r="C84">
         <v>1150000</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="1"/>
+        <v>t3_compost_bact_2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -1360,8 +1953,15 @@
       <c r="C85">
         <v>1030000</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D85">
+        <v>3</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="1"/>
+        <v>t3_compost_bact_3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -1371,8 +1971,15 @@
       <c r="C86">
         <v>4800000</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="1"/>
+        <v>t3_control.legumes_bact_1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -1382,8 +1989,15 @@
       <c r="C87">
         <v>2080000</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" si="1"/>
+        <v>t3_control.legumes_bact_2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -1392,6 +2006,13 @@
       </c>
       <c r="C88">
         <v>1360000</v>
+      </c>
+      <c r="D88">
+        <v>3</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="1"/>
+        <v>t3_control.legumes_bact_3</v>
       </c>
     </row>
   </sheetData>

--- a/raw_files/cfu_bacteria.xlsx
+++ b/raw_files/cfu_bacteria.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ignacio.romero\ownCloud - Romero Ignacio@owncloud.fibl.org\exchange_iro_nbo_vgf\iro\banana_microbiome\raw_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raquel\Documents\banana_microbiome\raw_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D798F217-2CBB-4498-BBCC-757CDBF302A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6936" xr2:uid="{3099E6A1-4DD2-4980-A120-CFFE3D1011F5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="18">
   <si>
     <t>time</t>
   </si>
@@ -74,11 +73,17 @@
   <si>
     <t>exp.id</t>
   </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -423,16 +428,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3FE8B97-9345-43F9-B5B4-6B4AC6F60A59}">
-  <dimension ref="A1:E88"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L121" sqref="L121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,7 +460,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -467,7 +478,7 @@
         <v>t0_control_bact_1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -481,11 +492,11 @@
         <v>2</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E66" si="0">A3&amp;"_"&amp;B3&amp;"_"&amp;"bact"&amp;"_"&amp;D3</f>
+        <f t="shared" ref="E3:E64" si="0">A3&amp;"_"&amp;B3&amp;"_"&amp;"bact"&amp;"_"&amp;D3</f>
         <v>t0_control_bact_2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -503,7 +514,7 @@
         <v>t0_control_bact_3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -521,7 +532,7 @@
         <v>t0_control.amf_bact_1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -539,7 +550,7 @@
         <v>t0_control.amf_bact_2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -557,7 +568,7 @@
         <v>t0_control.amf_bact_3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -575,7 +586,7 @@
         <v>t0_chicken.manure_bact_1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -593,7 +604,7 @@
         <v>t0_chicken.manure_bact_2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -611,7 +622,7 @@
         <v>t0_chicken.manure_bact_3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -629,7 +640,7 @@
         <v>t0_cow.manure_bact_1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -647,7 +658,7 @@
         <v>t0_cow.manure_bact_2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -665,7 +676,7 @@
         <v>t0_cow.manure_bact_3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -683,7 +694,7 @@
         <v>t0_mo.pellet_bact_1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -701,7 +712,7 @@
         <v>t0_mo.pellet_bact_2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -719,7 +730,7 @@
         <v>t0_mo.pellet_bact_3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -737,7 +748,7 @@
         <v>t0_compost_bact_1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -755,7 +766,7 @@
         <v>t0_compost_bact_2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -773,7 +784,7 @@
         <v>t0_compost_bact_3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -791,7 +802,7 @@
         <v>t0_control.legumes_bact_1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -809,7 +820,7 @@
         <v>t0_control.legumes_bact_2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -827,25 +838,25 @@
         <v>t0_control.legumes_bact_3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>570000</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
-        <v>time_treatment_bact_1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t1_control_bact_2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -853,17 +864,17 @@
         <v>3</v>
       </c>
       <c r="C24">
-        <v>570000</v>
+        <v>5050000</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
-        <v>t1_control_bact_2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t1_control_bact_3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -871,35 +882,35 @@
         <v>3</v>
       </c>
       <c r="C25">
-        <v>5050000</v>
+        <v>665000</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
-        <v>t1_control_bact_3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t1_control_bact_1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C26">
-        <v>665000</v>
+        <v>380000</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
-        <v>t1_control_bact_1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t1_control.amf_bact_2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -907,17 +918,17 @@
         <v>9</v>
       </c>
       <c r="C27">
-        <v>380000</v>
+        <v>8800000</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
-        <v>t1_control.amf_bact_2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t1_control.amf_bact_3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -925,35 +936,35 @@
         <v>9</v>
       </c>
       <c r="C28">
-        <v>8800000</v>
+        <v>740000</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
-        <v>t1_control.amf_bact_3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t1_control.amf_bact_1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C29">
-        <v>740000</v>
+        <v>11300000</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
-        <v>t1_control.amf_bact_1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t1_chicken.manure_bact_2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -961,17 +972,17 @@
         <v>10</v>
       </c>
       <c r="C30">
-        <v>11300000</v>
+        <v>12400000</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
-        <v>t1_chicken.manure_bact_2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t1_chicken.manure_bact_3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -979,35 +990,35 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <v>12400000</v>
+        <v>7350000</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
-        <v>t1_chicken.manure_bact_3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t1_chicken.manure_bact_1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C32">
-        <v>7350000</v>
+        <v>2745000</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
-        <v>t1_chicken.manure_bact_1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t1_cow.manure_bact_2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -1015,17 +1026,17 @@
         <v>11</v>
       </c>
       <c r="C33">
-        <v>2745000</v>
+        <v>5450000</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
-        <v>t1_cow.manure_bact_2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t1_cow.manure_bact_3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -1033,35 +1044,35 @@
         <v>11</v>
       </c>
       <c r="C34">
-        <v>5450000</v>
+        <v>2190000</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
-        <v>t1_cow.manure_bact_3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t1_cow.manure_bact_1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C35">
-        <v>2190000</v>
+        <v>720000</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
-        <v>t1_cow.manure_bact_1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t1_mo.pellet_bact_2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -1069,17 +1080,17 @@
         <v>12</v>
       </c>
       <c r="C36">
-        <v>720000</v>
+        <v>6250000</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
-        <v>t1_mo.pellet_bact_2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t1_mo.pellet_bact_3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -1087,35 +1098,35 @@
         <v>12</v>
       </c>
       <c r="C37">
-        <v>6250000</v>
+        <v>1070000</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
-        <v>t1_mo.pellet_bact_3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t1_mo.pellet_bact_1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C38">
-        <v>1070000</v>
+        <v>835000</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="0"/>
-        <v>t1_mo.pellet_bact_1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t1_compost_bact_2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -1123,17 +1134,17 @@
         <v>4</v>
       </c>
       <c r="C39">
-        <v>835000</v>
+        <v>4850000</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="0"/>
-        <v>t1_compost_bact_2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t1_compost_bact_3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -1141,35 +1152,35 @@
         <v>4</v>
       </c>
       <c r="C40">
-        <v>4850000</v>
+        <v>1190000</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
-        <v>t1_compost_bact_3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t1_compost_bact_1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C41">
-        <v>1190000</v>
+        <v>1835000</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="0"/>
-        <v>t1_compost_bact_1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t1_control.legumes_bact_2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -1177,17 +1188,17 @@
         <v>13</v>
       </c>
       <c r="C42">
-        <v>1835000</v>
+        <v>8750000</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="0"/>
-        <v>t1_control.legumes_bact_2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t1_control.legumes_bact_3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -1195,53 +1206,53 @@
         <v>13</v>
       </c>
       <c r="C43">
-        <v>8750000</v>
+        <v>1615000</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="0"/>
-        <v>t1_control.legumes_bact_3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t1_control.legumes_bact_1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>1615000</v>
+        <v>405000</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" si="0"/>
-        <v>t1_control.legumes_bact_1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t2_control_bact_3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>1110000</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="0"/>
-        <v>time_treatment_bact_2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t2_control_bact_1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -1249,53 +1260,53 @@
         <v>3</v>
       </c>
       <c r="C46">
-        <v>405000</v>
+        <v>830000</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="0"/>
-        <v>t2_control_bact_3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t2_control_bact_2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C47">
-        <v>1110000</v>
+        <v>630000</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="0"/>
-        <v>t2_control_bact_1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t2_control.amf_bact_3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C48">
-        <v>830000</v>
+        <v>575000</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="0"/>
-        <v>t2_control_bact_2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t2_control.amf_bact_1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -1303,53 +1314,53 @@
         <v>9</v>
       </c>
       <c r="C49">
-        <v>630000</v>
+        <v>535000</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="0"/>
-        <v>t2_control.amf_bact_3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t2_control.amf_bact_2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C50">
-        <v>575000</v>
+        <v>5800000</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="0"/>
-        <v>t2_control.amf_bact_1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t2_chicken.manure_bact_3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C51">
-        <v>535000</v>
+        <v>6300000</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="0"/>
-        <v>t2_control.amf_bact_2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t2_chicken.manure_bact_1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -1357,53 +1368,53 @@
         <v>10</v>
       </c>
       <c r="C52">
-        <v>5800000</v>
+        <v>2200000</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="0"/>
-        <v>t2_chicken.manure_bact_3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t2_chicken.manure_bact_2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C53">
-        <v>6300000</v>
+        <v>1030000</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="0"/>
-        <v>t2_chicken.manure_bact_1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t2_cow.manure_bact_3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C54">
-        <v>2200000</v>
+        <v>3250000</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="0"/>
-        <v>t2_chicken.manure_bact_2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t2_cow.manure_bact_1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -1411,53 +1422,53 @@
         <v>11</v>
       </c>
       <c r="C55">
-        <v>1030000</v>
+        <v>1080000</v>
       </c>
       <c r="D55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="0"/>
-        <v>t2_cow.manure_bact_3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t2_cow.manure_bact_2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C56">
-        <v>3250000</v>
+        <v>1050000</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="0"/>
-        <v>t2_cow.manure_bact_1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t2_mo.pellet_bact_3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C57">
-        <v>1080000</v>
+        <v>4300000</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="0"/>
-        <v>t2_cow.manure_bact_2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t2_mo.pellet_bact_1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -1465,53 +1476,53 @@
         <v>12</v>
       </c>
       <c r="C58">
-        <v>1050000</v>
+        <v>2750000</v>
       </c>
       <c r="D58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="0"/>
-        <v>t2_mo.pellet_bact_3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t2_mo.pellet_bact_2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C59">
-        <v>4300000</v>
+        <v>1320000</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="0"/>
-        <v>t2_mo.pellet_bact_1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t2_compost_bact_3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C60">
-        <v>2750000</v>
+        <v>1160000</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" si="0"/>
-        <v>t2_mo.pellet_bact_2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t2_compost_bact_1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -1519,53 +1530,53 @@
         <v>4</v>
       </c>
       <c r="C61">
-        <v>1320000</v>
+        <v>1000000</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="0"/>
-        <v>t2_compost_bact_3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t2_compost_bact_2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C62">
-        <v>1160000</v>
+        <v>1340000</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="0"/>
-        <v>t2_compost_bact_1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t2_control.legumes_bact_3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C63">
-        <v>1000000</v>
+        <v>2480000</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" si="0"/>
-        <v>t2_compost_bact_2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t2_control.legumes_bact_1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -1573,446 +1584,1148 @@
         <v>13</v>
       </c>
       <c r="C64">
-        <v>1340000</v>
+        <v>3110000</v>
       </c>
       <c r="D64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" si="0"/>
-        <v>t2_control.legumes_bact_3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t2_control.legumes_bact_2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C65">
-        <v>2480000</v>
+        <v>955000</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
       <c r="E65" t="str">
-        <f t="shared" si="0"/>
-        <v>t2_control.legumes_bact_1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" ref="E65:E127" si="1">A65&amp;"_"&amp;B65&amp;"_"&amp;"bact"&amp;"_"&amp;D65</f>
+        <v>t3_control_bact_1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C66">
-        <v>3110000</v>
+        <v>390000</v>
       </c>
       <c r="D66">
         <v>2</v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" si="0"/>
-        <v>t2_control.legumes_bact_2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>t3_control_bact_2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>1</v>
-      </c>
-      <c r="C67" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="C67">
+        <v>595000</v>
       </c>
       <c r="D67">
         <v>3</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" ref="E67:E88" si="1">A67&amp;"_"&amp;B67&amp;"_"&amp;"bact"&amp;"_"&amp;D67</f>
-        <v>time_treatment_bact_3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>t3_control_bact_3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C68">
-        <v>955000</v>
+        <v>1000000</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" si="1"/>
-        <v>t3_control_bact_1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t3_control.amf_bact_1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>7</v>
       </c>
       <c r="B69" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C69">
-        <v>390000</v>
+        <v>555000</v>
       </c>
       <c r="D69">
         <v>2</v>
       </c>
       <c r="E69" t="str">
         <f t="shared" si="1"/>
-        <v>t3_control_bact_2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t3_control.amf_bact_2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C70">
-        <v>595000</v>
+        <v>990000</v>
       </c>
       <c r="D70">
         <v>3</v>
       </c>
       <c r="E70" t="str">
         <f t="shared" si="1"/>
-        <v>t3_control_bact_3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t3_control.amf_bact_3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>7</v>
       </c>
       <c r="B71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C71">
-        <v>1000000</v>
+        <v>12100000</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
       <c r="E71" t="str">
         <f t="shared" si="1"/>
-        <v>t3_control.amf_bact_1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t3_chicken.manure_bact_1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>7</v>
       </c>
       <c r="B72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C72">
-        <v>555000</v>
+        <v>3150000</v>
       </c>
       <c r="D72">
         <v>2</v>
       </c>
       <c r="E72" t="str">
         <f t="shared" si="1"/>
-        <v>t3_control.amf_bact_2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t3_chicken.manure_bact_2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C73">
-        <v>990000</v>
+        <v>3450000</v>
       </c>
       <c r="D73">
         <v>3</v>
       </c>
       <c r="E73" t="str">
         <f t="shared" si="1"/>
-        <v>t3_control.amf_bact_3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t3_chicken.manure_bact_3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C74">
-        <v>12100000</v>
+        <v>1180000</v>
       </c>
       <c r="D74">
         <v>1</v>
       </c>
       <c r="E74" t="str">
         <f t="shared" si="1"/>
-        <v>t3_chicken.manure_bact_1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t3_cow.manure_bact_1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>7</v>
       </c>
       <c r="B75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C75">
-        <v>3150000</v>
+        <v>3250000</v>
       </c>
       <c r="D75">
         <v>2</v>
       </c>
       <c r="E75" t="str">
         <f t="shared" si="1"/>
-        <v>t3_chicken.manure_bact_2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t3_cow.manure_bact_2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>7</v>
       </c>
       <c r="B76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C76">
-        <v>3450000</v>
+        <v>2900000</v>
       </c>
       <c r="D76">
         <v>3</v>
       </c>
       <c r="E76" t="str">
         <f t="shared" si="1"/>
-        <v>t3_chicken.manure_bact_3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t3_cow.manure_bact_3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>7</v>
       </c>
       <c r="B77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C77">
-        <v>1180000</v>
+        <v>1070000</v>
       </c>
       <c r="D77">
         <v>1</v>
       </c>
       <c r="E77" t="str">
         <f t="shared" si="1"/>
-        <v>t3_cow.manure_bact_1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t3_mo.pellet_bact_1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C78">
-        <v>3250000</v>
+        <v>500000</v>
       </c>
       <c r="D78">
         <v>2</v>
       </c>
       <c r="E78" t="str">
         <f t="shared" si="1"/>
-        <v>t3_cow.manure_bact_2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t3_mo.pellet_bact_2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C79">
-        <v>2900000</v>
+        <v>460000</v>
       </c>
       <c r="D79">
         <v>3</v>
       </c>
       <c r="E79" t="str">
         <f t="shared" si="1"/>
-        <v>t3_cow.manure_bact_3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t3_mo.pellet_bact_3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>7</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C80">
-        <v>1070000</v>
+        <v>1160000</v>
       </c>
       <c r="D80">
         <v>1</v>
       </c>
       <c r="E80" t="str">
         <f t="shared" si="1"/>
-        <v>t3_mo.pellet_bact_1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t3_compost_bact_1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C81">
-        <v>500000</v>
+        <v>1150000</v>
       </c>
       <c r="D81">
         <v>2</v>
       </c>
       <c r="E81" t="str">
         <f t="shared" si="1"/>
-        <v>t3_mo.pellet_bact_2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t3_compost_bact_2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>7</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C82">
-        <v>460000</v>
+        <v>1030000</v>
       </c>
       <c r="D82">
         <v>3</v>
       </c>
       <c r="E82" t="str">
         <f t="shared" si="1"/>
-        <v>t3_mo.pellet_bact_3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t3_compost_bact_3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>7</v>
       </c>
       <c r="B83" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C83">
-        <v>1160000</v>
+        <v>4800000</v>
       </c>
       <c r="D83">
         <v>1</v>
       </c>
       <c r="E83" t="str">
         <f t="shared" si="1"/>
-        <v>t3_compost_bact_1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t3_control.legumes_bact_1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>7</v>
       </c>
       <c r="B84" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C84">
-        <v>1150000</v>
+        <v>2080000</v>
       </c>
       <c r="D84">
         <v>2</v>
       </c>
       <c r="E84" t="str">
         <f t="shared" si="1"/>
-        <v>t3_compost_bact_2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+        <v>t3_control.legumes_bact_2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>7</v>
       </c>
       <c r="B85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85">
+        <v>1360000</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="1"/>
+        <v>t3_control.legumes_bact_3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>16</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86">
+        <v>690000</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="1"/>
+        <v>t4_control_bact_1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>16</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87">
+        <v>1190000</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" si="1"/>
+        <v>t4_control_bact_2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>16</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88">
+        <v>835000</v>
+      </c>
+      <c r="D88">
+        <v>3</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="1"/>
+        <v>t4_control_bact_3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>16</v>
+      </c>
+      <c r="B89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89">
+        <v>1700000</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" si="1"/>
+        <v>t4_control.amf_bact_1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>16</v>
+      </c>
+      <c r="B90" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90">
+        <v>2270000</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" si="1"/>
+        <v>t4_control.amf_bact_2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>16</v>
+      </c>
+      <c r="B91" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91">
+        <v>1150000</v>
+      </c>
+      <c r="D91">
+        <v>3</v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" si="1"/>
+        <v>t4_control.amf_bact_3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>16</v>
+      </c>
+      <c r="B92" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92">
+        <v>18500000</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92" t="str">
+        <f t="shared" si="1"/>
+        <v>t4_chicken.manure_bact_1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>16</v>
+      </c>
+      <c r="B93" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93">
+        <v>10700000</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="E93" t="str">
+        <f t="shared" si="1"/>
+        <v>t4_chicken.manure_bact_2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>16</v>
+      </c>
+      <c r="B94" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94">
+        <v>14900000</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
+      <c r="E94" t="str">
+        <f t="shared" si="1"/>
+        <v>t4_chicken.manure_bact_3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>16</v>
+      </c>
+      <c r="B95" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95">
+        <v>6800000</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95" t="str">
+        <f t="shared" si="1"/>
+        <v>t4_cow.manure_bact_1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>16</v>
+      </c>
+      <c r="B96" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96">
+        <v>11200000</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96" t="str">
+        <f t="shared" si="1"/>
+        <v>t4_cow.manure_bact_2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>16</v>
+      </c>
+      <c r="B97" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97">
+        <v>9350000</v>
+      </c>
+      <c r="D97">
+        <v>3</v>
+      </c>
+      <c r="E97" t="str">
+        <f t="shared" si="1"/>
+        <v>t4_cow.manure_bact_3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>16</v>
+      </c>
+      <c r="B98" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98">
+        <v>1960000</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98" t="str">
+        <f t="shared" si="1"/>
+        <v>t4_mo.pellet_bact_1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>16</v>
+      </c>
+      <c r="B99" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99">
+        <v>505000</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="E99" t="str">
+        <f t="shared" si="1"/>
+        <v>t4_mo.pellet_bact_2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>16</v>
+      </c>
+      <c r="B100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100">
+        <v>7000000</v>
+      </c>
+      <c r="D100">
+        <v>3</v>
+      </c>
+      <c r="E100" t="str">
+        <f t="shared" si="1"/>
+        <v>t4_mo.pellet_bact_3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101" t="s">
         <v>4</v>
       </c>
-      <c r="C85">
-        <v>1030000</v>
-      </c>
-      <c r="D85">
-        <v>3</v>
-      </c>
-      <c r="E85" t="str">
-        <f t="shared" si="1"/>
-        <v>t3_compost_bact_3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>7</v>
-      </c>
-      <c r="B86" t="s">
+      <c r="C101">
+        <v>7650000</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101" t="str">
+        <f t="shared" si="1"/>
+        <v>t4_compost_bact_1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>16</v>
+      </c>
+      <c r="B102" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102">
+        <v>11800000</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="E102" t="str">
+        <f t="shared" si="1"/>
+        <v>t4_compost_bact_2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>16</v>
+      </c>
+      <c r="B103" t="s">
+        <v>4</v>
+      </c>
+      <c r="C103">
+        <v>3300000</v>
+      </c>
+      <c r="D103">
+        <v>3</v>
+      </c>
+      <c r="E103" t="str">
+        <f t="shared" si="1"/>
+        <v>t4_compost_bact_3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>16</v>
+      </c>
+      <c r="B104" t="s">
         <v>13</v>
       </c>
-      <c r="C86">
-        <v>4800000</v>
-      </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
-      <c r="E86" t="str">
-        <f t="shared" si="1"/>
-        <v>t3_control.legumes_bact_1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>7</v>
-      </c>
-      <c r="B87" t="s">
+      <c r="C104">
+        <v>2140000</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104" t="str">
+        <f t="shared" si="1"/>
+        <v>t4_control.legumes_bact_1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>16</v>
+      </c>
+      <c r="B105" t="s">
         <v>13</v>
       </c>
-      <c r="C87">
-        <v>2080000</v>
-      </c>
-      <c r="D87">
-        <v>2</v>
-      </c>
-      <c r="E87" t="str">
-        <f t="shared" si="1"/>
-        <v>t3_control.legumes_bact_2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>7</v>
-      </c>
-      <c r="B88" t="s">
+      <c r="C105">
+        <v>1650000</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+      <c r="E105" t="str">
+        <f t="shared" si="1"/>
+        <v>t4_control.legumes_bact_2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>16</v>
+      </c>
+      <c r="B106" t="s">
         <v>13</v>
       </c>
-      <c r="C88">
-        <v>1360000</v>
-      </c>
-      <c r="D88">
-        <v>3</v>
-      </c>
-      <c r="E88" t="str">
-        <f t="shared" si="1"/>
-        <v>t3_control.legumes_bact_3</v>
+      <c r="C106">
+        <v>2390000</v>
+      </c>
+      <c r="D106">
+        <v>3</v>
+      </c>
+      <c r="E106" t="str">
+        <f t="shared" si="1"/>
+        <v>t4_control.legumes_bact_3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>17</v>
+      </c>
+      <c r="B107" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107">
+        <v>710000</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107" t="str">
+        <f t="shared" si="1"/>
+        <v>t5_control_bact_1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>17</v>
+      </c>
+      <c r="B108" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108">
+        <v>700000</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
+      </c>
+      <c r="E108" t="str">
+        <f t="shared" si="1"/>
+        <v>t5_control_bact_2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>17</v>
+      </c>
+      <c r="B109" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109">
+        <v>500000</v>
+      </c>
+      <c r="D109">
+        <v>3</v>
+      </c>
+      <c r="E109" t="str">
+        <f t="shared" si="1"/>
+        <v>t5_control_bact_3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>17</v>
+      </c>
+      <c r="B110" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110">
+        <v>465000</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110" t="str">
+        <f t="shared" si="1"/>
+        <v>t5_control.amf_bact_1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>17</v>
+      </c>
+      <c r="B111" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111">
+        <v>630000</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+      <c r="E111" t="str">
+        <f t="shared" si="1"/>
+        <v>t5_control.amf_bact_2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>17</v>
+      </c>
+      <c r="B112" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112">
+        <v>570000</v>
+      </c>
+      <c r="D112">
+        <v>3</v>
+      </c>
+      <c r="E112" t="str">
+        <f t="shared" si="1"/>
+        <v>t5_control.amf_bact_3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>17</v>
+      </c>
+      <c r="B113" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113">
+        <v>2500000</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113" t="str">
+        <f t="shared" si="1"/>
+        <v>t5_chicken.manure_bact_1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>17</v>
+      </c>
+      <c r="B114" t="s">
+        <v>10</v>
+      </c>
+      <c r="C114">
+        <v>3020000</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+      <c r="E114" t="str">
+        <f t="shared" si="1"/>
+        <v>t5_chicken.manure_bact_2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>17</v>
+      </c>
+      <c r="B115" t="s">
+        <v>10</v>
+      </c>
+      <c r="C115">
+        <v>2820000</v>
+      </c>
+      <c r="D115">
+        <v>3</v>
+      </c>
+      <c r="E115" t="str">
+        <f t="shared" si="1"/>
+        <v>t5_chicken.manure_bact_3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>17</v>
+      </c>
+      <c r="B116" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116">
+        <v>2320000</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116" t="str">
+        <f t="shared" si="1"/>
+        <v>t5_cow.manure_bact_1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>17</v>
+      </c>
+      <c r="B117" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117">
+        <v>1950000</v>
+      </c>
+      <c r="D117">
+        <v>2</v>
+      </c>
+      <c r="E117" t="str">
+        <f t="shared" si="1"/>
+        <v>t5_cow.manure_bact_2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>17</v>
+      </c>
+      <c r="B118" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118">
+        <v>1040000</v>
+      </c>
+      <c r="D118">
+        <v>3</v>
+      </c>
+      <c r="E118" t="str">
+        <f t="shared" si="1"/>
+        <v>t5_cow.manure_bact_3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>17</v>
+      </c>
+      <c r="B119" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119">
+        <v>675000</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119" t="str">
+        <f t="shared" si="1"/>
+        <v>t5_mo.pellet_bact_1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>17</v>
+      </c>
+      <c r="B120" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120">
+        <v>1370000</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+      <c r="E120" t="str">
+        <f t="shared" si="1"/>
+        <v>t5_mo.pellet_bact_2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>17</v>
+      </c>
+      <c r="B121" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121">
+        <v>1380000</v>
+      </c>
+      <c r="D121">
+        <v>3</v>
+      </c>
+      <c r="E121" t="str">
+        <f t="shared" si="1"/>
+        <v>t5_mo.pellet_bact_3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>17</v>
+      </c>
+      <c r="B122" t="s">
+        <v>4</v>
+      </c>
+      <c r="C122">
+        <v>1200000</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122" t="str">
+        <f t="shared" si="1"/>
+        <v>t5_compost_bact_1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>17</v>
+      </c>
+      <c r="B123" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123">
+        <v>1320000</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
+      </c>
+      <c r="E123" t="str">
+        <f t="shared" si="1"/>
+        <v>t5_compost_bact_2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>17</v>
+      </c>
+      <c r="B124" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124">
+        <v>1080000</v>
+      </c>
+      <c r="D124">
+        <v>3</v>
+      </c>
+      <c r="E124" t="str">
+        <f t="shared" si="1"/>
+        <v>t5_compost_bact_3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>17</v>
+      </c>
+      <c r="B125" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125">
+        <v>44500</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125" t="str">
+        <f t="shared" si="1"/>
+        <v>t5_control.legumes_bact_1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>17</v>
+      </c>
+      <c r="B126" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126">
+        <v>630000</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+      <c r="E126" t="str">
+        <f t="shared" si="1"/>
+        <v>t5_control.legumes_bact_2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>17</v>
+      </c>
+      <c r="B127" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127">
+        <v>365000</v>
+      </c>
+      <c r="D127">
+        <v>3</v>
+      </c>
+      <c r="E127" t="str">
+        <f t="shared" si="1"/>
+        <v>t5_control.legumes_bact_3</v>
       </c>
     </row>
   </sheetData>
